--- a/0001.xlsx
+++ b/0001.xlsx
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
   <si>
     <t>Cliente:</t>
   </si>
   <si>
-    <t>Arq. Gabriel Urcuyo</t>
+    <t>MINISTERIO DE TRANSPORTE E INFRAESTRUCTURA (MTI)</t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>Estudio Geotecnico de Cimentaciones y Prueba de Infiltración en Lote A-25 Estudio Geotecnico de Cimentaciones y Prueba de</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Infiltración en Lote A-25 Estudio Geotecnico de Cimentaciones y Prueba de Infiltración en Lote</t>
+    <t>ESTUDIO DE FACTIBILIDAD Y DISEÑO PARA LA AMPLIACIÓN DE LA CARRETERA EMPALME SAN BENITO-EMPALME SEBACO-ESTELI</t>
   </si>
   <si>
     <t>Sondeo No:</t>
@@ -2490,40 +2487,304 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$A$1:$AW$1</c:f>
+              <c:f>Datos!$A$1:$A$49</c:f>
               <c:numCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="47">
                   <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$A$2:$AW$2</c:f>
+              <c:f>Datos!$B$1:$B$49</c:f>
               <c:numCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.5</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,9 +3028,7 @@
       <c r="AD2" s="49"/>
     </row>
     <row r="3" ht="50.0" customHeight="true">
-      <c r="H3" t="s" s="47">
-        <v>4</v>
-      </c>
+      <c r="H3" s="49"/>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -2787,20 +3046,20 @@
       <c r="W3" s="49"/>
       <c r="X3" s="49"/>
       <c r="Y3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="76" t="s">
         <v>5</v>
-      </c>
-      <c r="AB3" s="76" t="s">
-        <v>6</v>
       </c>
       <c r="AC3" s="49"/>
       <c r="AD3" s="49"/>
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="G4" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s" s="47">
         <v>7</v>
-      </c>
-      <c r="H4" t="s" s="47">
-        <v>8</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -2827,34 +3086,34 @@
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="45">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="45">
+      <c r="C6" t="s" s="45">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="45">
+      <c r="D6" t="s" s="45">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="45">
+      <c r="E6" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="45">
+      <c r="F6" t="s" s="45">
         <v>23</v>
       </c>
-      <c r="F6" t="s" s="45">
+      <c r="G6" t="s" s="53">
         <v>24</v>
       </c>
-      <c r="G6" t="s" s="53">
+      <c r="H6" t="s" s="45">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="45">
+      <c r="I6" t="s" s="45">
         <v>26</v>
       </c>
-      <c r="I6" t="s" s="45">
+      <c r="J6" t="s" s="45">
         <v>27</v>
-      </c>
-      <c r="J6" t="s" s="45">
-        <v>28</v>
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="58"/>
@@ -2889,10 +3148,10 @@
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
       <c r="K7" t="s" s="59">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s" s="62">
         <v>9</v>
-      </c>
-      <c r="N7" t="s" s="62">
-        <v>10</v>
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
@@ -2903,10 +3162,10 @@
       <c r="U7" s="49"/>
       <c r="V7" s="49"/>
       <c r="W7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s" s="62">
         <v>11</v>
-      </c>
-      <c r="Z7" t="s" s="62">
-        <v>12</v>
       </c>
       <c r="AA7" s="49"/>
       <c r="AB7" s="49"/>
@@ -2925,10 +3184,10 @@
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
       <c r="K8" t="s" s="59">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s" s="62">
         <v>13</v>
-      </c>
-      <c r="N8" t="s" s="62">
-        <v>14</v>
       </c>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
@@ -2959,10 +3218,10 @@
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" t="s" s="59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s" s="62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
@@ -2975,10 +3234,10 @@
       <c r="W9" s="49"/>
       <c r="X9" s="49"/>
       <c r="Y9" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="s" s="62">
         <v>17</v>
-      </c>
-      <c r="AA9" t="s" s="62">
-        <v>18</v>
       </c>
       <c r="AB9" s="49"/>
       <c r="AC9" s="49"/>
@@ -3018,7 +3277,7 @@
     </row>
     <row r="11" ht="45.0" customHeight="true">
       <c r="A11" t="s" s="50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -3030,16 +3289,16 @@
       <c r="I11" s="51"/>
       <c r="J11" s="64"/>
       <c r="K11" t="s" s="67">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s" s="67">
         <v>30</v>
       </c>
-      <c r="L11" t="s" s="67">
+      <c r="M11" t="s" s="67">
         <v>31</v>
       </c>
-      <c r="M11" t="s" s="67">
+      <c r="N11" t="s" s="70">
         <v>32</v>
-      </c>
-      <c r="N11" t="s" s="70">
-        <v>33</v>
       </c>
       <c r="O11" s="72"/>
       <c r="P11" s="51"/>
@@ -3102,13 +3361,13 @@
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>102</v>
       </c>
       <c r="H13" t="n" s="65">
         <v>33.0</v>
@@ -3118,7 +3377,7 @@
       </c>
       <c r="J13" s="48"/>
       <c r="K13" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" t="n" s="71">
         <v>8.0</v>
@@ -3163,7 +3422,7 @@
         <v>30.0</v>
       </c>
       <c r="N14" t="s" s="69">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
@@ -3230,7 +3489,7 @@
         <v>7.2</v>
       </c>
       <c r="K16" t="s" s="69">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" t="n" s="71">
         <v>10.0</v>
@@ -3239,7 +3498,7 @@
         <v>20.0</v>
       </c>
       <c r="N16" t="s" s="69">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="48"/>
       <c r="P16" s="48"/>
@@ -3311,7 +3570,7 @@
       </c>
       <c r="M18" s="48"/>
       <c r="N18" t="s" s="69">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
@@ -3342,7 +3601,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
       <c r="K19" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" t="n" s="71">
         <v>10.0</v>
@@ -3387,7 +3646,7 @@
         <v>24.0</v>
       </c>
       <c r="N20" t="s" s="69">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
@@ -3454,7 +3713,7 @@
         <v>6.3</v>
       </c>
       <c r="K22" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" t="n" s="71">
         <v>7.0</v>
@@ -3463,7 +3722,7 @@
         <v>14.0</v>
       </c>
       <c r="N22" t="s" s="69">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
@@ -3535,7 +3794,7 @@
       </c>
       <c r="M24" s="48"/>
       <c r="N24" t="s" s="69">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
@@ -3566,7 +3825,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="K25" t="s" s="69">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n" s="71">
         <v>7.0</v>
@@ -3611,7 +3870,7 @@
         <v>19.0</v>
       </c>
       <c r="N26" t="s" s="69">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
@@ -3678,7 +3937,7 @@
         <v>8.1</v>
       </c>
       <c r="K28" t="s" s="69">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L28" t="n" s="71">
         <v>12.0</v>
@@ -3687,7 +3946,7 @@
         <v>24.0</v>
       </c>
       <c r="N28" t="s" s="69">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
@@ -3759,7 +4018,7 @@
       </c>
       <c r="M30" s="48"/>
       <c r="N30" t="s" s="69">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
@@ -3790,7 +4049,7 @@
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
       <c r="K31" t="s" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" t="n" s="71">
         <v>17.0</v>
@@ -3835,7 +4094,7 @@
         <v>40.0</v>
       </c>
       <c r="N32" t="s" s="69">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
@@ -3901,10 +4160,10 @@
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
       <c r="F34" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" t="n" s="65">
         <v>41.0</v>
@@ -3916,7 +4175,7 @@
         <v>7.3</v>
       </c>
       <c r="K34" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" t="n" s="71">
         <v>27.0</v>
@@ -3925,7 +4184,7 @@
         <v>54.0</v>
       </c>
       <c r="N34" t="s" s="69">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O34" s="48"/>
       <c r="P34" s="48"/>
@@ -3997,7 +4256,7 @@
       </c>
       <c r="M36" s="48"/>
       <c r="N36" t="s" s="69">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
@@ -4028,7 +4287,7 @@
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
       <c r="K37" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="n" s="71">
         <v>35.0</v>
@@ -4073,7 +4332,7 @@
         <v>87.0</v>
       </c>
       <c r="N38" t="s" s="69">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
@@ -4132,7 +4391,7 @@
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
       <c r="E40" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -4142,16 +4401,16 @@
         <v>7.7</v>
       </c>
       <c r="K40" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40" t="s" s="69">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
@@ -4183,16 +4442,16 @@
       <c r="J41" s="48"/>
       <c r="K41" s="48"/>
       <c r="L41" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N41" s="69"/>
       <c r="O41" s="48"/>
       <c r="P41" s="48"/>
       <c r="Q41" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R41" s="48"/>
       <c r="S41" s="48"/>
@@ -4221,11 +4480,11 @@
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M42" s="48"/>
       <c r="N42" t="s" s="69">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O42" s="48"/>
       <c r="P42" s="48"/>
@@ -4257,26 +4516,26 @@
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="56" t="s">
-        <v>105</v>
-      </c>
       <c r="H43" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43" s="48"/>
       <c r="K43" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M43" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N43" s="69"/>
       <c r="O43" s="48"/>
@@ -4309,18 +4568,18 @@
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="L44" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M44" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N44" t="s" s="69">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O44" s="48"/>
       <c r="P44" s="48"/>
       <c r="Q44" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R44" s="48"/>
       <c r="S44" s="48"/>
@@ -4349,7 +4608,7 @@
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="L45" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M45" s="48"/>
       <c r="N45" s="69"/>
@@ -4382,16 +4641,16 @@
       <c r="I46" s="48"/>
       <c r="J46" s="48"/>
       <c r="K46" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L46" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N46" t="s" s="69">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O46" s="48"/>
       <c r="P46" s="48"/>
@@ -4423,16 +4682,16 @@
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="L47" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M47" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47" s="69"/>
       <c r="O47" s="48"/>
       <c r="P47" s="48"/>
       <c r="Q47" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R47" s="48"/>
       <c r="S47" s="48"/>
@@ -4461,11 +4720,11 @@
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
       <c r="L48" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48" s="48"/>
       <c r="N48" t="s" s="69">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O48" s="48"/>
       <c r="P48" s="48"/>
@@ -4496,13 +4755,13 @@
       <c r="I49" s="48"/>
       <c r="J49" s="48"/>
       <c r="K49" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M49" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N49" s="69"/>
       <c r="O49" s="48"/>
@@ -4535,18 +4794,18 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
       <c r="L50" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50" t="s" s="69">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O50" s="48"/>
       <c r="P50" s="48"/>
       <c r="Q50" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R50" s="48"/>
       <c r="S50" s="48"/>
@@ -4575,7 +4834,7 @@
       <c r="J51" s="48"/>
       <c r="K51" s="48"/>
       <c r="L51" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51" s="48"/>
       <c r="N51" s="69"/>
@@ -4609,29 +4868,29 @@
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H52" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J52" s="48"/>
       <c r="K52" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L52" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52" t="s" s="69">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" s="48"/>
       <c r="P52" s="48"/>
@@ -4663,16 +4922,16 @@
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="L53" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M53" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N53" s="69"/>
       <c r="O53" s="48"/>
       <c r="P53" s="48"/>
       <c r="Q53" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R53" s="48"/>
       <c r="S53" s="48"/>
@@ -4701,11 +4960,11 @@
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M54" s="48"/>
       <c r="N54" t="s" s="69">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O54" s="48"/>
       <c r="P54" s="48"/>
@@ -4736,13 +4995,13 @@
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
       <c r="K55" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55" s="69"/>
       <c r="O55" s="48"/>
@@ -4775,18 +5034,18 @@
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M56" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N56" t="s" s="69">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O56" s="48"/>
       <c r="P56" s="48"/>
       <c r="Q56" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R56" s="48"/>
       <c r="S56" s="48"/>
@@ -4815,7 +5074,7 @@
       <c r="J57" s="48"/>
       <c r="K57" s="48"/>
       <c r="L57" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M57" s="48"/>
       <c r="N57" s="69"/>
@@ -4848,16 +5107,16 @@
       <c r="I58" s="48"/>
       <c r="J58" s="48"/>
       <c r="K58" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M58" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58" t="s" s="69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O58" s="48"/>
       <c r="P58" s="48"/>
@@ -4889,16 +5148,16 @@
       <c r="J59" s="48"/>
       <c r="K59" s="48"/>
       <c r="L59" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M59" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N59" s="69"/>
       <c r="O59" s="48"/>
       <c r="P59" s="48"/>
       <c r="Q59" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R59" s="48"/>
       <c r="S59" s="48"/>
@@ -4927,11 +5186,11 @@
       <c r="J60" s="48"/>
       <c r="K60" s="48"/>
       <c r="L60" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M60" s="48"/>
       <c r="N60" t="s" s="69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O60" s="48"/>
       <c r="P60" s="48"/>
@@ -4963,26 +5222,26 @@
       <c r="D61" s="48"/>
       <c r="E61" s="48"/>
       <c r="F61" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G61" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" s="48"/>
       <c r="K61" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L61" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N61" s="69"/>
       <c r="O61" s="48"/>
@@ -5015,18 +5274,18 @@
       <c r="J62" s="48"/>
       <c r="K62" s="48"/>
       <c r="L62" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M62" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s" s="69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O62" s="48"/>
       <c r="P62" s="48"/>
       <c r="Q62" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R62" s="48"/>
       <c r="S62" s="48"/>
@@ -5055,7 +5314,7 @@
       <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63" s="48"/>
       <c r="N63" s="69"/>
@@ -5088,16 +5347,16 @@
       <c r="I64" s="48"/>
       <c r="J64" s="48"/>
       <c r="K64" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L64" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M64" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N64" t="s" s="69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
@@ -5129,16 +5388,16 @@
       <c r="J65" s="48"/>
       <c r="K65" s="48"/>
       <c r="L65" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M65" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N65" s="69"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
       <c r="Q65" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R65" s="48"/>
       <c r="S65" s="48"/>
@@ -5167,11 +5426,11 @@
       <c r="J66" s="48"/>
       <c r="K66" s="48"/>
       <c r="L66" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66" s="48"/>
       <c r="N66" t="s" s="69">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
@@ -5202,13 +5461,13 @@
       <c r="I67" s="48"/>
       <c r="J67" s="48"/>
       <c r="K67" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L67" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M67" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N67" s="69"/>
       <c r="O67" s="48"/>
@@ -5241,18 +5500,18 @@
       <c r="J68" s="48"/>
       <c r="K68" s="48"/>
       <c r="L68" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N68" t="s" s="69">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O68" s="48"/>
       <c r="P68" s="48"/>
       <c r="Q68" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R68" s="48"/>
       <c r="S68" s="48"/>
@@ -5281,7 +5540,7 @@
       <c r="J69" s="48"/>
       <c r="K69" s="48"/>
       <c r="L69" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M69" s="48"/>
       <c r="N69" s="69"/>
@@ -5314,25 +5573,25 @@
       </c>
       <c r="D70" s="48"/>
       <c r="E70" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="56" t="s">
-        <v>109</v>
-      </c>
       <c r="H70" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n" s="73">
         <v>8.2</v>
       </c>
       <c r="K70" t="s" s="69">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L70" t="n" s="71">
         <v>8.0</v>
@@ -5341,7 +5600,7 @@
         <v>16.0</v>
       </c>
       <c r="N70" t="s" s="69">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O70" s="48"/>
       <c r="P70" s="48"/>
@@ -5413,7 +5672,7 @@
       </c>
       <c r="M72" s="48"/>
       <c r="N72" t="s" s="69">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O72" s="48"/>
       <c r="P72" s="48"/>
@@ -5445,10 +5704,10 @@
       <c r="D73" s="48"/>
       <c r="E73" s="48"/>
       <c r="F73" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="56" t="s">
         <v>110</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>111</v>
       </c>
       <c r="H73" t="n" s="65">
         <v>51.0</v>
@@ -5458,7 +5717,7 @@
       </c>
       <c r="J73" s="48"/>
       <c r="K73" t="s" s="69">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L73" t="n" s="71">
         <v>10.0</v>
@@ -5503,7 +5762,7 @@
         <v>36.0</v>
       </c>
       <c r="N74" t="s" s="69">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O74" s="48"/>
       <c r="P74" s="48"/>
@@ -5570,7 +5829,7 @@
         <v>36.2</v>
       </c>
       <c r="K76" t="s" s="69">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L76" t="n" s="71">
         <v>13.0</v>
@@ -5579,7 +5838,7 @@
         <v>26.0</v>
       </c>
       <c r="N76" t="s" s="69">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O76" s="48"/>
       <c r="P76" s="48"/>
@@ -5651,7 +5910,7 @@
       </c>
       <c r="M78" s="48"/>
       <c r="N78" t="s" s="69">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O78" s="48"/>
       <c r="P78" s="48"/>
@@ -5682,7 +5941,7 @@
       <c r="I79" s="48"/>
       <c r="J79" s="48"/>
       <c r="K79" t="s" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L79" t="n" s="71">
         <v>27.0</v>
@@ -5727,7 +5986,7 @@
         <v>60.0</v>
       </c>
       <c r="N80" t="s" s="69">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O80" s="48"/>
       <c r="P80" s="48"/>
@@ -5794,7 +6053,7 @@
         <v>36.9</v>
       </c>
       <c r="K82" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L82" t="n" s="71">
         <v>17.0</v>
@@ -5803,7 +6062,7 @@
         <v>34.0</v>
       </c>
       <c r="N82" t="s" s="69">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O82" s="48"/>
       <c r="P82" s="48"/>
@@ -5875,7 +6134,7 @@
       </c>
       <c r="M84" s="48"/>
       <c r="N84" t="s" s="69">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O84" s="48"/>
       <c r="P84" s="48"/>
@@ -5907,10 +6166,10 @@
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G85" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H85" t="n" s="65">
         <v>57.0</v>
@@ -5920,7 +6179,7 @@
       </c>
       <c r="J85" s="48"/>
       <c r="K85" t="s" s="69">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L85" t="n" s="71">
         <v>14.0</v>
@@ -5965,7 +6224,7 @@
         <v>67.0</v>
       </c>
       <c r="N86" t="s" s="69">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O86" s="48"/>
       <c r="P86" s="48"/>
@@ -6032,7 +6291,7 @@
         <v>37.2</v>
       </c>
       <c r="K88" t="s" s="69">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L88" t="n" s="71">
         <v>40.0</v>
@@ -6041,7 +6300,7 @@
         <v>80.0</v>
       </c>
       <c r="N88" t="s" s="69">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O88" s="48"/>
       <c r="P88" s="48"/>
@@ -6113,7 +6372,7 @@
       </c>
       <c r="M90" s="48"/>
       <c r="N90" t="s" s="69">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O90" s="48"/>
       <c r="P90" s="48"/>
@@ -6144,29 +6403,29 @@
       </c>
       <c r="D91" s="48"/>
       <c r="E91" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F91" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G91" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H91" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J91" s="48"/>
       <c r="K91" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L91" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M91" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N91" s="69"/>
       <c r="O91" s="48"/>
@@ -6199,18 +6458,18 @@
       <c r="J92" s="48"/>
       <c r="K92" s="48"/>
       <c r="L92" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M92" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N92" t="s" s="69">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O92" s="48"/>
       <c r="P92" s="48"/>
       <c r="Q92" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R92" s="48"/>
       <c r="S92" s="48"/>
@@ -6239,7 +6498,7 @@
       <c r="J93" s="48"/>
       <c r="K93" s="48"/>
       <c r="L93" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M93" s="48"/>
       <c r="N93" s="69"/>
@@ -6273,29 +6532,29 @@
       <c r="D94" s="48"/>
       <c r="E94" s="48"/>
       <c r="F94" s="90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G94" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H94" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J94" s="48"/>
       <c r="K94" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L94" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M94" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N94" t="s" s="69">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O94" s="48"/>
       <c r="P94" s="48"/>
@@ -6327,16 +6586,16 @@
       <c r="J95" s="48"/>
       <c r="K95" s="48"/>
       <c r="L95" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M95" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N95" s="69"/>
       <c r="O95" s="48"/>
       <c r="P95" s="48"/>
       <c r="Q95" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R95" s="48"/>
       <c r="S95" s="48"/>
@@ -6365,11 +6624,11 @@
       <c r="J96" s="48"/>
       <c r="K96" s="48"/>
       <c r="L96" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M96" s="48"/>
       <c r="N96" t="s" s="69">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O96" s="48"/>
       <c r="P96" s="48"/>
@@ -6400,13 +6659,13 @@
       <c r="I97" s="48"/>
       <c r="J97" s="48"/>
       <c r="K97" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L97" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M97" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N97" s="69"/>
       <c r="O97" s="48"/>
@@ -6439,18 +6698,18 @@
       <c r="J98" s="48"/>
       <c r="K98" s="48"/>
       <c r="L98" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M98" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N98" t="s" s="69">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O98" s="48"/>
       <c r="P98" s="48"/>
       <c r="Q98" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R98" s="48"/>
       <c r="S98" s="48"/>
@@ -6479,7 +6738,7 @@
       <c r="J99" s="48"/>
       <c r="K99" s="48"/>
       <c r="L99" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M99" s="48"/>
       <c r="N99" s="69"/>
@@ -6512,16 +6771,16 @@
       <c r="I100" s="48"/>
       <c r="J100" s="48"/>
       <c r="K100" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L100" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M100" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N100" t="s" s="69">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O100" s="48"/>
       <c r="P100" s="48"/>
@@ -6553,16 +6812,16 @@
       <c r="J101" s="48"/>
       <c r="K101" s="48"/>
       <c r="L101" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M101" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N101" s="69"/>
       <c r="O101" s="48"/>
       <c r="P101" s="48"/>
       <c r="Q101" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101" s="48"/>
       <c r="S101" s="48"/>
@@ -6591,11 +6850,11 @@
       <c r="J102" s="48"/>
       <c r="K102" s="48"/>
       <c r="L102" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M102" s="48"/>
       <c r="N102" t="s" s="69">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O102" s="48"/>
       <c r="P102" s="48"/>
@@ -6627,26 +6886,26 @@
       <c r="D103" s="48"/>
       <c r="E103" s="48"/>
       <c r="F103" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G103" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H103" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J103" s="48"/>
       <c r="K103" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M103" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N103" s="69"/>
       <c r="O103" s="48"/>
@@ -6679,18 +6938,18 @@
       <c r="J104" s="48"/>
       <c r="K104" s="48"/>
       <c r="L104" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M104" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N104" t="s" s="69">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O104" s="48"/>
       <c r="P104" s="48"/>
       <c r="Q104" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104" s="48"/>
       <c r="S104" s="48"/>
@@ -6719,7 +6978,7 @@
       <c r="J105" s="48"/>
       <c r="K105" s="48"/>
       <c r="L105" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M105" s="48"/>
       <c r="N105" s="69"/>
@@ -6752,16 +7011,16 @@
       <c r="I106" s="48"/>
       <c r="J106" s="48"/>
       <c r="K106" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L106" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M106" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N106" t="s" s="69">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O106" s="48"/>
       <c r="P106" s="48"/>
@@ -6793,16 +7052,16 @@
       <c r="J107" s="48"/>
       <c r="K107" s="48"/>
       <c r="L107" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M107" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N107" s="69"/>
       <c r="O107" s="48"/>
       <c r="P107" s="48"/>
       <c r="Q107" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R107" s="48"/>
       <c r="S107" s="48"/>
@@ -6831,11 +7090,11 @@
       <c r="J108" s="48"/>
       <c r="K108" s="48"/>
       <c r="L108" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M108" s="48"/>
       <c r="N108" t="s" s="69">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O108" s="48"/>
       <c r="P108" s="48"/>
@@ -6866,13 +7125,13 @@
       <c r="I109" s="48"/>
       <c r="J109" s="48"/>
       <c r="K109" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L109" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M109" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N109" s="69"/>
       <c r="O109" s="48"/>
@@ -6905,18 +7164,18 @@
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
       <c r="L110" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M110" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N110" t="s" s="69">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O110" s="48"/>
       <c r="P110" s="48"/>
       <c r="Q110" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110" s="48"/>
       <c r="S110" s="48"/>
@@ -6945,7 +7204,7 @@
       <c r="J111" s="48"/>
       <c r="K111" s="48"/>
       <c r="L111" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M111" s="48"/>
       <c r="N111" s="69"/>
@@ -6979,29 +7238,29 @@
       <c r="D112" s="48"/>
       <c r="E112" s="48"/>
       <c r="F112" s="92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G112" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H112" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J112" s="48"/>
       <c r="K112" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L112" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M112" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N112" t="s" s="69">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O112" s="48"/>
       <c r="P112" s="48"/>
@@ -7033,16 +7292,16 @@
       <c r="J113" s="48"/>
       <c r="K113" s="48"/>
       <c r="L113" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M113" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N113" s="69"/>
       <c r="O113" s="48"/>
       <c r="P113" s="48"/>
       <c r="Q113" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R113" s="48"/>
       <c r="S113" s="48"/>
@@ -7071,11 +7330,11 @@
       <c r="J114" s="48"/>
       <c r="K114" s="48"/>
       <c r="L114" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M114" s="48"/>
       <c r="N114" t="s" s="69">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O114" s="48"/>
       <c r="P114" s="48"/>
@@ -7106,13 +7365,13 @@
       <c r="I115" s="48"/>
       <c r="J115" s="48"/>
       <c r="K115" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L115" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M115" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N115" s="69"/>
       <c r="O115" s="48"/>
@@ -7145,18 +7404,18 @@
       <c r="J116" s="48"/>
       <c r="K116" s="48"/>
       <c r="L116" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M116" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N116" t="s" s="69">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O116" s="48"/>
       <c r="P116" s="48"/>
       <c r="Q116" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R116" s="48"/>
       <c r="S116" s="48"/>
@@ -7185,7 +7444,7 @@
       <c r="J117" s="48"/>
       <c r="K117" s="48"/>
       <c r="L117" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M117" s="48"/>
       <c r="N117" s="69"/>
@@ -7218,16 +7477,16 @@
       <c r="I118" s="48"/>
       <c r="J118" s="48"/>
       <c r="K118" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L118" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M118" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N118" t="s" s="69">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O118" s="48"/>
       <c r="P118" s="48"/>
@@ -7259,16 +7518,16 @@
       <c r="J119" s="48"/>
       <c r="K119" s="48"/>
       <c r="L119" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M119" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N119" s="69"/>
       <c r="O119" s="48"/>
       <c r="P119" s="48"/>
       <c r="Q119" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R119" s="48"/>
       <c r="S119" s="48"/>
@@ -7297,11 +7556,11 @@
       <c r="J120" s="48"/>
       <c r="K120" s="48"/>
       <c r="L120" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M120" s="48"/>
       <c r="N120" t="s" s="69">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O120" s="48"/>
       <c r="P120" s="48"/>
@@ -7333,26 +7592,26 @@
       <c r="D121" s="48"/>
       <c r="E121" s="48"/>
       <c r="F121" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G121" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G121" s="56" t="s">
-        <v>105</v>
-      </c>
       <c r="H121" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J121" s="48"/>
       <c r="K121" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L121" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M121" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N121" s="69"/>
       <c r="O121" s="48"/>
@@ -7385,18 +7644,18 @@
       <c r="J122" s="48"/>
       <c r="K122" s="48"/>
       <c r="L122" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M122" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N122" t="s" s="69">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O122" s="48"/>
       <c r="P122" s="48"/>
       <c r="Q122" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="48"/>
@@ -7425,7 +7684,7 @@
       <c r="J123" s="48"/>
       <c r="K123" s="48"/>
       <c r="L123" t="s" s="75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M123" s="48"/>
       <c r="N123" s="69"/>
@@ -7458,16 +7717,16 @@
       <c r="I124" s="48"/>
       <c r="J124" s="48"/>
       <c r="K124" t="s" s="69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L124" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M124" t="s" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N124" t="s" s="69">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O124" s="48"/>
       <c r="P124" s="48"/>
@@ -7499,16 +7758,16 @@
       <c r="J125" s="48"/>
       <c r="K125" s="48"/>
       <c r="L125" t="s" s="48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M125" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N125" s="69"/>
       <c r="O125" s="48"/>
       <c r="P125" s="48"/>
       <c r="Q125" t="s" s="69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R125" s="48"/>
       <c r="S125" s="48"/>
@@ -7537,11 +7796,11 @@
       <c r="J126" s="95"/>
       <c r="K126" s="95"/>
       <c r="L126" t="s" s="96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M126" s="95"/>
       <c r="N126" t="s" s="97">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O126" s="95"/>
       <c r="P126" s="95"/>
@@ -7562,7 +7821,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="99">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/0001.xlsx
+++ b/0001.xlsx
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Cliente:</t>
   </si>
   <si>
-    <t>PROINTEC - INCOSA</t>
+    <t>MINISTERIO DE TRANSPORTE E INFRAESTRUCTURA (MTI)</t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>ANALISIS DE ESTABILIDAD DE TALUD "CUESTA CUCAMONGA"</t>
+    <t>ESTUDIO DE FACTIBILIDAD Y DISEÑO PARA LA AMPLIACIÓN DE LA CARRETERA EMPALME SAN BENITO-EMPALME SEBACO-ESTELI</t>
   </si>
   <si>
     <t>Sondeo No:</t>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Profundidad</t>
-  </si>
-  <si>
-    <t>R O T A D O</t>
   </si>
   <si>
     <t>9"</t>
@@ -1740,7 +1737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="top"/>
@@ -1942,22 +1939,46 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="88" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="97" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="88" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="97" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1966,30 +1987,6 @@
       <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="117" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2004,6 +2001,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2436,7 +2437,7 @@
       <c r="Y3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="69" t="s">
+      <c r="AB3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="AC3" s="39"/>
@@ -2685,10 +2686,10 @@
       <c r="M11" t="s" s="57">
         <v>28</v>
       </c>
-      <c r="N11" t="s" s="60">
+      <c r="N11" t="s" s="59">
         <v>29</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
@@ -2749,13 +2750,13 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>41</v>
       </c>
       <c r="H13" t="s" s="55">
         <v>9</v>
@@ -2764,16 +2765,10 @@
         <v>9</v>
       </c>
       <c r="J13" s="38"/>
-      <c r="K13" t="s" s="59">
-        <v>33</v>
-      </c>
-      <c r="L13" t="n" s="61">
-        <v>4.0</v>
-      </c>
-      <c r="M13" t="n" s="61">
-        <v>8.0</v>
-      </c>
-      <c r="N13" s="59"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="61"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -2789,7 +2784,7 @@
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
-      <c r="AD13" s="75"/>
+      <c r="AD13" s="76"/>
     </row>
     <row r="14" ht="20.0" customHeight="true">
       <c r="A14" s="36"/>
@@ -2803,20 +2798,14 @@
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
-      <c r="L14" t="s" s="38">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s" s="63">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s" s="59">
-        <v>34</v>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" t="s" s="61">
+        <v>33</v>
       </c>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
-      <c r="Q14" t="s" s="59">
-        <v>30</v>
-      </c>
+      <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -2829,7 +2818,7 @@
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
-      <c r="AD14" s="75"/>
+      <c r="AD14" s="76"/>
     </row>
     <row r="15" ht="20.0" customHeight="true">
       <c r="A15" s="36"/>
@@ -2843,11 +2832,9 @@
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
-      <c r="L15" t="s" s="64">
-        <v>9</v>
-      </c>
+      <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="59"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -2863,7 +2850,7 @@
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
-      <c r="AD15" s="75"/>
+      <c r="AD15" s="76"/>
     </row>
     <row r="16" ht="20.0" customHeight="true">
       <c r="A16" s="36"/>
@@ -2879,8 +2866,8 @@
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" t="s" s="59">
-        <v>35</v>
+      <c r="N16" t="s" s="61">
+        <v>34</v>
       </c>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
@@ -2897,7 +2884,7 @@
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
-      <c r="AD16" s="75"/>
+      <c r="AD16" s="76"/>
     </row>
     <row r="17" ht="20.0" customHeight="true">
       <c r="A17" s="36"/>
@@ -2911,13 +2898,9 @@
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
-      <c r="L17" t="n" s="59">
-        <v>7.0</v>
-      </c>
-      <c r="M17" t="n" s="63">
-        <v>14.0</v>
-      </c>
-      <c r="N17" s="59"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -2933,7 +2916,7 @@
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="75"/>
+      <c r="AD17" s="76"/>
     </row>
     <row r="18" ht="20.0" customHeight="true">
       <c r="A18" s="36"/>
@@ -2947,12 +2930,10 @@
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
-      <c r="L18" t="n" s="64">
-        <v>7.0</v>
-      </c>
+      <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" t="s" s="59">
-        <v>36</v>
+      <c r="N18" t="s" s="61">
+        <v>35</v>
       </c>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -2969,7 +2950,7 @@
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="75"/>
+      <c r="AD18" s="76"/>
     </row>
     <row r="19" ht="20.0" customHeight="true">
       <c r="A19" s="36"/>
@@ -2981,13 +2962,13 @@
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" t="n" s="66">
+      <c r="J19" t="n" s="63">
         <v>26.4</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="61"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
@@ -3003,7 +2984,7 @@
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
-      <c r="AD19" s="75"/>
+      <c r="AD19" s="76"/>
     </row>
     <row r="20" ht="20.0" customHeight="true">
       <c r="A20" s="36"/>
@@ -3017,14 +2998,10 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" t="n" s="59">
-        <v>6.0</v>
-      </c>
-      <c r="M20" t="n" s="63">
-        <v>11.0</v>
-      </c>
-      <c r="N20" t="s" s="59">
-        <v>37</v>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" t="s" s="61">
+        <v>36</v>
       </c>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
@@ -3041,7 +3018,7 @@
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
-      <c r="AD20" s="75"/>
+      <c r="AD20" s="76"/>
     </row>
     <row r="21" ht="20.0" customHeight="true">
       <c r="A21" t="n" s="44">
@@ -3055,11 +3032,11 @@
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>42</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>43</v>
       </c>
       <c r="H21" t="n" s="55">
         <v>41.0</v>
@@ -3068,12 +3045,16 @@
         <v>11.0</v>
       </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" t="n" s="64">
+      <c r="K21" t="s" s="61">
+        <v>30</v>
+      </c>
+      <c r="L21" t="n" s="68">
         <v>5.0</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="59"/>
+      <c r="M21" t="n" s="68">
+        <v>10.0</v>
+      </c>
+      <c r="N21" s="61"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -3089,7 +3070,7 @@
       <c r="AA21" s="38"/>
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
-      <c r="AD21" s="75"/>
+      <c r="AD21" s="76"/>
     </row>
     <row r="22" ht="20.0" customHeight="true">
       <c r="A22" s="36"/>
@@ -3103,10 +3084,14 @@
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" t="s" s="59">
-        <v>38</v>
+      <c r="L22" t="n" s="61">
+        <v>7.0</v>
+      </c>
+      <c r="M22" t="n" s="69">
+        <v>14.0</v>
+      </c>
+      <c r="N22" t="s" s="61">
+        <v>37</v>
       </c>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
@@ -3123,7 +3108,7 @@
       <c r="AA22" s="38"/>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
-      <c r="AD22" s="75"/>
+      <c r="AD22" s="76"/>
     </row>
     <row r="23" ht="20.0" customHeight="true">
       <c r="A23" s="36"/>
@@ -3137,13 +3122,11 @@
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
-      <c r="L23" t="n" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="M23" t="n" s="63">
+      <c r="L23" t="n" s="70">
         <v>7.0</v>
       </c>
-      <c r="N23" s="59"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="61"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -3159,7 +3142,7 @@
       <c r="AA23" s="38"/>
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
-      <c r="AD23" s="75"/>
+      <c r="AD23" s="76"/>
     </row>
     <row r="24" ht="20.0" customHeight="true">
       <c r="A24" t="n" s="44">
@@ -3173,11 +3156,11 @@
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>44</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>45</v>
       </c>
       <c r="H24" t="n" s="55">
         <v>75.0</v>
@@ -3186,13 +3169,17 @@
         <v>47.0</v>
       </c>
       <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" t="n" s="64">
-        <v>3.0</v>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" t="s" s="59">
-        <v>39</v>
+      <c r="K24" t="s" s="61">
+        <v>31</v>
+      </c>
+      <c r="L24" t="n" s="68">
+        <v>9.0</v>
+      </c>
+      <c r="M24" t="n" s="68">
+        <v>18.0</v>
+      </c>
+      <c r="N24" t="s" s="61">
+        <v>38</v>
       </c>
       <c r="O24" s="38"/>
       <c r="P24" s="38"/>
@@ -3209,7 +3196,7 @@
       <c r="AA24" s="38"/>
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
-      <c r="AD24" s="75"/>
+      <c r="AD24" s="76"/>
     </row>
     <row r="25">
       <c r="A25" s="36"/>
@@ -3223,8 +3210,12 @@
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="L25" t="n" s="61">
+        <v>6.0</v>
+      </c>
+      <c r="M25" t="n" s="69">
+        <v>11.0</v>
+      </c>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
@@ -3241,7 +3232,7 @@
       <c r="AA25" s="38"/>
       <c r="AB25" s="38"/>
       <c r="AC25" s="38"/>
-      <c r="AD25" s="75"/>
+      <c r="AD25" s="76"/>
     </row>
     <row r="26">
       <c r="A26" s="36"/>
@@ -3255,7 +3246,9 @@
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="L26" t="n" s="70">
+        <v>5.0</v>
+      </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
       <c r="O26" s="38"/>
@@ -3273,7 +3266,7 @@
       <c r="AA26" s="38"/>
       <c r="AB26" s="38"/>
       <c r="AC26" s="38"/>
-      <c r="AD26" s="75"/>
+      <c r="AD26" s="76"/>
     </row>
     <row r="27">
       <c r="A27" s="36"/>
@@ -3286,9 +3279,15 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="K27" t="s" s="61">
+        <v>32</v>
+      </c>
+      <c r="L27" t="n" s="68">
+        <v>4.0</v>
+      </c>
+      <c r="M27" t="n" s="68">
+        <v>8.0</v>
+      </c>
       <c r="N27" s="38"/>
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
@@ -3305,7 +3304,7 @@
       <c r="AA27" s="38"/>
       <c r="AB27" s="38"/>
       <c r="AC27" s="38"/>
-      <c r="AD27" s="75"/>
+      <c r="AD27" s="76"/>
     </row>
     <row r="28">
       <c r="A28" s="36"/>
@@ -3319,8 +3318,12 @@
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="L28" t="n" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="M28" t="n" s="69">
+        <v>7.0</v>
+      </c>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
@@ -3337,43 +3340,45 @@
       <c r="AA28" s="38"/>
       <c r="AB28" s="38"/>
       <c r="AC28" s="38"/>
-      <c r="AD28" s="75"/>
+      <c r="AD28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="68"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="76"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" t="n" s="75">
+        <v>3.0</v>
+      </c>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="77"/>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="77">
-        <v>47</v>
+      <c r="A31" t="s" s="78">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3408,16 +3413,15 @@
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:AD12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K13:K20"/>
     <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M28:M29"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="C13:C20"/>

--- a/0001.xlsx
+++ b/0001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
   <si>
     <t>Cliente:</t>
   </si>
@@ -33,34 +33,43 @@
     <t>Sondeo No:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2, Estribo # 2</t>
   </si>
   <si>
     <t>Lugar:</t>
   </si>
   <si>
-    <t>MANAGUA</t>
+    <t>PUENTE MADERAS, EST: 11+060, DESVIACION: B/D</t>
   </si>
   <si>
     <t xml:space="preserve">Operador: </t>
   </si>
   <si>
+    <t>JEVER V.</t>
+  </si>
+  <si>
+    <t>Nivel Freatico:</t>
+  </si>
+  <si>
+    <t>NO SE ENCONTRO</t>
+  </si>
+  <si>
+    <t>Observaciones:</t>
+  </si>
+  <si>
+    <t>LLONGITUD: 40 METROS, ELEVACION: 111.50 MSNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo: </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Nivel Freatico:</t>
-  </si>
-  <si>
-    <t>Observaciones:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
-    <t>30-07-2020</t>
+    <t>28-07-2020</t>
   </si>
   <si>
     <t>Cota en 
@@ -102,7 +111,7 @@
 natural</t>
   </si>
   <si>
-    <t>Elevacion en metros: 0.0</t>
+    <t>Elevacion en metros: 111.5</t>
   </si>
   <si>
     <t>Recobro</t>
@@ -118,10 +127,28 @@
     <t>Profundidad</t>
   </si>
   <si>
+    <t>8"</t>
+  </si>
+  <si>
+    <t>7"</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>11"</t>
+  </si>
+  <si>
+    <t>15"</t>
+  </si>
+  <si>
+    <t>13"</t>
+  </si>
+  <si>
     <t>9"</t>
   </si>
   <si>
-    <t>11"</t>
+    <t>10"</t>
   </si>
   <si>
     <t>12"</t>
@@ -145,31 +172,232 @@
     <t>6'</t>
   </si>
   <si>
-    <t>CBSB</t>
-  </si>
-  <si>
-    <t>CARPETA, BASE, SUB-BASE
-(CBSB)</t>
+    <t>7'</t>
+  </si>
+  <si>
+    <t>8'</t>
+  </si>
+  <si>
+    <t>9'</t>
+  </si>
+  <si>
+    <t>10'</t>
+  </si>
+  <si>
+    <t>11'</t>
+  </si>
+  <si>
+    <t>12'</t>
+  </si>
+  <si>
+    <t>13'</t>
+  </si>
+  <si>
+    <t>14'</t>
+  </si>
+  <si>
+    <t>15'</t>
+  </si>
+  <si>
+    <t>16'</t>
+  </si>
+  <si>
+    <t>17'</t>
+  </si>
+  <si>
+    <t>18'</t>
+  </si>
+  <si>
+    <t>19'</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>21'</t>
+  </si>
+  <si>
+    <t>22'</t>
+  </si>
+  <si>
+    <t>23'</t>
+  </si>
+  <si>
+    <t>24'</t>
+  </si>
+  <si>
+    <t>25'</t>
+  </si>
+  <si>
+    <t>26'</t>
+  </si>
+  <si>
+    <t>27'</t>
+  </si>
+  <si>
+    <t>28'</t>
+  </si>
+  <si>
+    <t>29'</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>31'</t>
+  </si>
+  <si>
+    <t>32'</t>
+  </si>
+  <si>
+    <t>33'</t>
+  </si>
+  <si>
+    <t>34'</t>
+  </si>
+  <si>
+    <t>35'</t>
+  </si>
+  <si>
+    <t>36'</t>
+  </si>
+  <si>
+    <t>37'</t>
+  </si>
+  <si>
+    <t>38'</t>
+  </si>
+  <si>
+    <t>39'</t>
+  </si>
+  <si>
+    <t>40'</t>
+  </si>
+  <si>
+    <t>41'</t>
+  </si>
+  <si>
+    <t>42'</t>
+  </si>
+  <si>
+    <t>43'</t>
+  </si>
+  <si>
+    <t>44'</t>
+  </si>
+  <si>
+    <t>45'</t>
+  </si>
+  <si>
+    <t>46'</t>
+  </si>
+  <si>
+    <t>47'</t>
+  </si>
+  <si>
+    <t>48'</t>
+  </si>
+  <si>
+    <t>49'</t>
+  </si>
+  <si>
+    <t>50'</t>
+  </si>
+  <si>
+    <t>51'</t>
+  </si>
+  <si>
+    <t>52'</t>
+  </si>
+  <si>
+    <t>53'</t>
+  </si>
+  <si>
+    <t>54'</t>
+  </si>
+  <si>
+    <t>55'</t>
+  </si>
+  <si>
+    <t>56'</t>
+  </si>
+  <si>
+    <t>57'</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ARENA ARCILLOSA CON GRAVA, COLOR LILA CON PINTAS BLANCAS.
+(SC)</t>
+  </si>
+  <si>
+    <t>ARENA ARCILLOSA CON GRAVA, COLOR CAFE.
+(SC)</t>
+  </si>
+  <si>
+    <t>R O T A D O</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>ROTADO</t>
+  </si>
+  <si>
+    <t>ROCA FRACTURADA, COLOR GRIS. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>ROCA FRACTURADA, COLOR LILA. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>ARENA CON BOLONES, COLOR GRIS. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>GP-GM</t>
+  </si>
+  <si>
+    <t>GRAVA POBREMENTE GRADUADA CON ARENA Y LIMO, COLOR GRIS CLARO.
+(GP-GM)</t>
   </si>
   <si>
     <t>SM</t>
   </si>
   <si>
-    <t>ARENA LIMOSA CON GRAVA, COLOR ROJIZA
+    <t>ARENA LIMOSA CON GRAVA, COLOR GRIS CLARO.
 (SM)</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>ARCILLA ARENOSA COLOR CAFE CLARO
-(CH)</t>
+    <t>ARENA LIMOSA CON GRAVA, COLOR CAFE OSCURO.
+(SM)</t>
+  </si>
+  <si>
+    <t>ROCA FRACTURADA, COLOR CAFE CLARO. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>ARENA (MUESTRA LAVADA), COLOR CAFE. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>ARENA CON BOLONES, COLOR CAFE CLARO. 
+(ROTADO)</t>
+  </si>
+  <si>
+    <t>ROCA FRACTURADA, COLOR GRIS CLARO. 
+(ROTADO)</t>
   </si>
   <si>
     <t>CN</t>
   </si>
   <si>
-    <t>Fin del Sondeo No. 1</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Fin del Sondeo No. 2, Estribo # 2</t>
   </si>
 </sst>
 </file>
@@ -177,7 +405,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -266,11 +494,61 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,16 +570,53 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="lightVertical"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="lightVertical">
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+      <patternFill patternType="lightVertical">
+        <fgColor indexed="20"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor indexed="60"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="20"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor indexed="0"/>
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -315,41 +630,86 @@
     </fill>
     <fill>
       <patternFill patternType="darkTrellis">
-        <fgColor indexed="10"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
+      <patternFill patternType="darkTrellis">
         <fgColor indexed="60"/>
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="60"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="55"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="23"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor indexed="20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor indexed="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkTrellis">
-        <fgColor indexed="10"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
+      <patternFill patternType="darkTrellis">
         <fgColor indexed="60"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="144">
+  <borders count="137">
     <border>
       <left/>
       <right/>
@@ -1297,124 +1657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right style="medium"/>
       <top/>
@@ -1624,94 +1866,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
+      <left style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
+      <left style="medium"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin"/>
@@ -1720,13 +1911,116 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -1737,7 +2031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="top"/>
@@ -1827,16 +2121,46 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1903,7 +2227,7 @@
       <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1939,63 +2263,103 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="88" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="97" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="103" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="107" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="112" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="117" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="121" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="124" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2003,15 +2367,15 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="143" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="136" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2066,61 +2430,151 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$A$1:$A$18</c:f>
+              <c:f>Datos!$A$1:$A$48</c:f>
               <c:numCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="47">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2128,62 +2582,414 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$1:$B$18</c:f>
+              <c:f>Datos!$B$1:$B$48</c:f>
               <c:numCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:prstClr val="red"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$C$1:$C$38</c:f>
+              <c:numCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.5</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$D$1:$D$38</c:f>
+              <c:numCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,6 +3007,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2222,18 +3029,19 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="6.0"/>
+          <c:max val="57.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="true"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="0"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6.0"/>
+        <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.0"/>
       </c:valAx>
       <c:spPr>
@@ -2306,7 +3114,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -2316,7 +3124,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8534400" cy="4572000"/>
+        <a:ext cx="8534400" cy="30279975"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2334,7 +3142,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2360,1025 +3168,3164 @@
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
     </row>
     <row r="2" ht="50.0" customHeight="true">
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
     </row>
     <row r="3" ht="50.0" customHeight="true">
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
       <c r="Y3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="66" t="s">
+      <c r="AB3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="G4" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H4" t="s" s="37">
+      <c r="H4" t="s" s="47">
         <v>7</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
     </row>
     <row r="6" ht="40.0" customHeight="true">
-      <c r="A6" t="s" s="34">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="35">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="35">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="35">
+      <c r="A6" t="s" s="44">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="35">
+      <c r="B6" t="s" s="45">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="35">
+      <c r="C6" t="s" s="45">
         <v>20</v>
       </c>
-      <c r="G6" t="s" s="43">
+      <c r="D6" t="s" s="45">
         <v>21</v>
       </c>
-      <c r="H6" t="s" s="35">
+      <c r="E6" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="I6" t="s" s="35">
+      <c r="F6" t="s" s="45">
         <v>23</v>
       </c>
-      <c r="J6" t="s" s="35">
+      <c r="G6" t="s" s="53">
         <v>24</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="71"/>
+      <c r="H6" t="s" s="45">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="45">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="45">
+        <v>27</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="77"/>
     </row>
     <row r="7">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" t="s" s="49">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" t="s" s="59">
         <v>8</v>
       </c>
-      <c r="N7" t="s" s="52">
+      <c r="N7" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
       <c r="W7" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="Z7" t="s" s="52">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="72"/>
+      <c r="Z7" t="s" s="62">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="78"/>
     </row>
     <row r="8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" t="s" s="49">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s" s="52">
-        <v>9</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="72"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" t="s" s="59">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s" s="62">
+        <v>13</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="78"/>
     </row>
     <row r="9">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" t="s" s="49">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s" s="52">
-        <v>9</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" t="s" s="59">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
       <c r="Y9" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="s" s="52">
-        <v>14</v>
-      </c>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="72"/>
+        <v>16</v>
+      </c>
+      <c r="AA9" t="s" s="62">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="78"/>
     </row>
     <row r="10">
-      <c r="A10" s="36"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="73"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="79"/>
     </row>
     <row r="11" ht="45.0" customHeight="true">
-      <c r="A11" t="s" s="40">
-        <v>25</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="54"/>
-      <c r="K11" t="s" s="57">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s" s="57">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s" s="57">
+      <c r="A11" t="s" s="50">
         <v>28</v>
       </c>
-      <c r="N11" t="s" s="59">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="64"/>
+      <c r="K11" t="s" s="67">
         <v>29</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="74"/>
+      <c r="L11" t="s" s="67">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s" s="67">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s" s="70">
+        <v>32</v>
+      </c>
+      <c r="O11" s="72"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="81"/>
     </row>
     <row r="12" ht="45.0" customHeight="true">
-      <c r="A12" s="42"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="73"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="79"/>
     </row>
     <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" t="n" s="44">
-        <v>-1.2192</v>
-      </c>
-      <c r="B13" t="n" s="45">
-        <v>1.2192</v>
-      </c>
-      <c r="C13" t="n" s="46">
-        <v>1.2192</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="50" t="s">
+      <c r="A13" t="n" s="54">
+        <v>108.3</v>
+      </c>
+      <c r="B13" t="n" s="55">
+        <v>3.2</v>
+      </c>
+      <c r="C13" t="n" s="56">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n" s="65">
+        <v>33.0</v>
+      </c>
+      <c r="I13" t="n" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="L13" t="n" s="71">
+        <v>8.0</v>
+      </c>
+      <c r="M13" t="n" s="71">
+        <v>16.0</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="AD13" s="78"/>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" t="n" s="69">
+        <v>10.0</v>
+      </c>
+      <c r="M14" t="n" s="74">
+        <v>30.0</v>
+      </c>
+      <c r="N14" t="s" s="69">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="78"/>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="N15" s="69"/>
+      <c r="AD15" s="78"/>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" t="n" s="73">
+        <v>7.2</v>
+      </c>
+      <c r="K16" t="s" s="69">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n" s="71">
+        <v>10.0</v>
+      </c>
+      <c r="M16" t="n" s="71">
+        <v>20.0</v>
+      </c>
+      <c r="N16" t="s" s="69">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="78"/>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" t="n" s="69">
+        <v>11.0</v>
+      </c>
+      <c r="M17" t="n" s="74">
+        <v>26.0</v>
+      </c>
+      <c r="N17" s="69"/>
+      <c r="AD17" s="78"/>
+    </row>
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" t="n" s="75">
+        <v>15.0</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" t="s" s="69">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="78"/>
+    </row>
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="L19" t="n" s="71">
+        <v>10.0</v>
+      </c>
+      <c r="M19" t="n" s="71">
+        <v>20.0</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="AD19" s="78"/>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" t="n" s="69">
+        <v>13.0</v>
+      </c>
+      <c r="M20" t="n" s="74">
+        <v>24.0</v>
+      </c>
+      <c r="N20" t="s" s="69">
         <v>45</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="AD20" s="78"/>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" t="n" s="75">
+        <v>11.0</v>
+      </c>
+      <c r="M21" s="48"/>
+      <c r="N21" s="69"/>
+      <c r="AD21" s="78"/>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" t="n" s="73">
+        <v>6.3</v>
+      </c>
+      <c r="K22" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="L22" t="n" s="71">
+        <v>7.0</v>
+      </c>
+      <c r="M22" t="n" s="71">
+        <v>14.0</v>
+      </c>
+      <c r="N22" t="s" s="69">
+        <v>46</v>
+      </c>
+      <c r="AD22" s="78"/>
+    </row>
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" t="n" s="69">
+        <v>7.0</v>
+      </c>
+      <c r="M23" t="n" s="74">
+        <v>15.0</v>
+      </c>
+      <c r="N23" s="69"/>
+      <c r="AD23" s="78"/>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" t="n" s="75">
+        <v>8.0</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" t="s" s="69">
+        <v>47</v>
+      </c>
+      <c r="AD24" s="78"/>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" t="s" s="69">
+        <v>35</v>
+      </c>
+      <c r="L25" t="n" s="71">
+        <v>7.0</v>
+      </c>
+      <c r="M25" t="n" s="71">
+        <v>14.0</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="AD25" s="78"/>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" t="n" s="69">
+        <v>7.0</v>
+      </c>
+      <c r="M26" t="n" s="74">
+        <v>19.0</v>
+      </c>
+      <c r="N26" t="s" s="69">
+        <v>48</v>
+      </c>
+      <c r="AD26" s="78"/>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" t="n" s="75">
+        <v>12.0</v>
+      </c>
+      <c r="M27" s="48"/>
+      <c r="N27" s="69"/>
+      <c r="AD27" s="78"/>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" t="n" s="73">
+        <v>8.1</v>
+      </c>
+      <c r="K28" t="s" s="69">
+        <v>35</v>
+      </c>
+      <c r="L28" t="n" s="71">
+        <v>12.0</v>
+      </c>
+      <c r="M28" t="n" s="71">
+        <v>24.0</v>
+      </c>
+      <c r="N28" t="s" s="69">
+        <v>49</v>
+      </c>
+      <c r="AD28" s="78"/>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" t="n" s="69">
+        <v>14.0</v>
+      </c>
+      <c r="M29" t="n" s="74">
+        <v>30.0</v>
+      </c>
+      <c r="N29" s="69"/>
+      <c r="AD29" s="78"/>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" t="n" s="75">
+        <v>16.0</v>
+      </c>
+      <c r="M30" s="48"/>
+      <c r="N30" t="s" s="69">
+        <v>50</v>
+      </c>
+      <c r="AD30" s="78"/>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" t="s" s="69">
+        <v>36</v>
+      </c>
+      <c r="L31" t="n" s="71">
+        <v>17.0</v>
+      </c>
+      <c r="M31" t="n" s="71">
+        <v>34.0</v>
+      </c>
+      <c r="N31" s="69"/>
+      <c r="AD31" s="78"/>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" t="n" s="69">
+        <v>18.0</v>
+      </c>
+      <c r="M32" t="n" s="74">
+        <v>40.0</v>
+      </c>
+      <c r="N32" t="s" s="69">
+        <v>51</v>
+      </c>
+      <c r="AD32" s="78"/>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" t="n" s="75">
+        <v>22.0</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="69"/>
+      <c r="AD33" s="78"/>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" t="n" s="54">
+        <v>106.93</v>
+      </c>
+      <c r="B34" t="n" s="55">
+        <v>4.57</v>
+      </c>
+      <c r="C34" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="n" s="65">
+        <v>41.0</v>
+      </c>
+      <c r="I34" t="n" s="65">
+        <v>15.0</v>
+      </c>
+      <c r="J34" t="n" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="K34" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="L34" t="n" s="71">
+        <v>27.0</v>
+      </c>
+      <c r="M34" t="n" s="71">
+        <v>54.0</v>
+      </c>
+      <c r="N34" t="s" s="69">
+        <v>52</v>
+      </c>
+      <c r="AD34" s="78"/>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" t="n" s="69">
+        <v>31.0</v>
+      </c>
+      <c r="M35" t="n" s="74">
+        <v>70.0</v>
+      </c>
+      <c r="N35" s="69"/>
+      <c r="AD35" s="78"/>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" t="n" s="75">
+        <v>39.0</v>
+      </c>
+      <c r="M36" s="48"/>
+      <c r="N36" t="s" s="69">
+        <v>53</v>
+      </c>
+      <c r="AD36" s="78"/>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="L37" t="n" s="71">
+        <v>35.0</v>
+      </c>
+      <c r="M37" t="n" s="71">
+        <v>70.0</v>
+      </c>
+      <c r="N37" s="69"/>
+      <c r="AD37" s="78"/>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" s="46"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" t="n" s="69">
+        <v>37.0</v>
+      </c>
+      <c r="M38" t="n" s="74">
+        <v>87.0</v>
+      </c>
+      <c r="N38" t="s" s="69">
+        <v>54</v>
+      </c>
+      <c r="AD38" s="78"/>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" t="n" s="75">
+        <v>50.0</v>
+      </c>
+      <c r="M39" s="48"/>
+      <c r="N39" s="69"/>
+      <c r="AD39" s="78"/>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" t="n" s="73">
+        <v>7.7</v>
+      </c>
+      <c r="K40" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s" s="69">
+        <v>55</v>
+      </c>
+      <c r="AD40" s="78"/>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" s="46"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N41" s="69"/>
+      <c r="Q41" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD41" s="78"/>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" s="46"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M42" s="48"/>
+      <c r="N42" t="s" s="69">
+        <v>56</v>
+      </c>
+      <c r="AD42" s="78"/>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" t="n" s="54">
+        <v>105.56</v>
+      </c>
+      <c r="B43" t="n" s="55">
+        <v>5.94</v>
+      </c>
+      <c r="C43" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L43" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M43" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N43" s="69"/>
+      <c r="Q43" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD43" s="78"/>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" s="46"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s" s="69">
+        <v>57</v>
+      </c>
+      <c r="Q44" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD44" s="78"/>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" s="46"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M45" s="48"/>
+      <c r="N45" s="69"/>
+      <c r="AD45" s="78"/>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M46" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s" s="69">
+        <v>58</v>
+      </c>
+      <c r="AD46" s="78"/>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N47" s="69"/>
+      <c r="Q47" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD47" s="78"/>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" s="46"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M48" s="48"/>
+      <c r="N48" t="s" s="69">
+        <v>59</v>
+      </c>
+      <c r="AD48" s="78"/>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L49" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N49" s="69"/>
+      <c r="AD49" s="78"/>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" s="46"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s" s="69">
+        <v>60</v>
+      </c>
+      <c r="Q50" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD50" s="78"/>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" s="46"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M51" s="48"/>
+      <c r="N51" s="69"/>
+      <c r="AD51" s="78"/>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" t="n" s="54">
+        <v>104.18</v>
+      </c>
+      <c r="B52" t="n" s="55">
+        <v>7.32</v>
+      </c>
+      <c r="C52" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J52" s="48"/>
+      <c r="K52" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M52" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s" s="69">
+        <v>61</v>
+      </c>
+      <c r="Q52" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD52" s="78"/>
+    </row>
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" s="46"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N53" s="69"/>
+      <c r="Q53" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD53" s="78"/>
+    </row>
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54" s="46"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M54" s="48"/>
+      <c r="N54" t="s" s="69">
+        <v>62</v>
+      </c>
+      <c r="AD54" s="78"/>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" s="46"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M55" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N55" s="69"/>
+      <c r="AD55" s="78"/>
+    </row>
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" s="46"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N56" t="s" s="69">
+        <v>63</v>
+      </c>
+      <c r="Q56" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD56" s="78"/>
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" s="46"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M57" s="48"/>
+      <c r="N57" s="69"/>
+      <c r="AD57" s="78"/>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" s="46"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L58" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M58" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s" s="69">
+        <v>64</v>
+      </c>
+      <c r="AD58" s="78"/>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N59" s="69"/>
+      <c r="Q59" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD59" s="78"/>
+    </row>
+    <row r="60" ht="20.0" customHeight="true">
+      <c r="A60" s="46"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M60" s="48"/>
+      <c r="N60" t="s" s="69">
+        <v>65</v>
+      </c>
+      <c r="AD60" s="78"/>
+    </row>
+    <row r="61" ht="20.0" customHeight="true">
+      <c r="A61" t="n" s="54">
+        <v>102.81</v>
+      </c>
+      <c r="B61" t="n" s="55">
+        <v>8.69</v>
+      </c>
+      <c r="C61" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I61" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L61" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M61" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N61" s="69"/>
+      <c r="Q61" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD61" s="78"/>
+    </row>
+    <row r="62" ht="20.0" customHeight="true">
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N62" t="s" s="69">
+        <v>66</v>
+      </c>
+      <c r="Q62" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD62" s="78"/>
+    </row>
+    <row r="63" ht="20.0" customHeight="true">
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M63" s="48"/>
+      <c r="N63" s="69"/>
+      <c r="AD63" s="78"/>
+    </row>
+    <row r="64" ht="20.0" customHeight="true">
+      <c r="A64" s="46"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L64" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M64" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N64" t="s" s="69">
+        <v>67</v>
+      </c>
+      <c r="AD64" s="78"/>
+    </row>
+    <row r="65" ht="20.0" customHeight="true">
+      <c r="A65" s="46"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N65" s="69"/>
+      <c r="Q65" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD65" s="78"/>
+    </row>
+    <row r="66" ht="20.0" customHeight="true">
+      <c r="A66" s="46"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M66" s="48"/>
+      <c r="N66" t="s" s="69">
+        <v>68</v>
+      </c>
+      <c r="AD66" s="78"/>
+    </row>
+    <row r="67" ht="20.0" customHeight="true">
+      <c r="A67" s="46"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L67" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M67" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N67" s="69"/>
+      <c r="AD67" s="78"/>
+    </row>
+    <row r="68" ht="20.0" customHeight="true">
+      <c r="A68" s="46"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N68" t="s" s="69">
+        <v>69</v>
+      </c>
+      <c r="Q68" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD68" s="78"/>
+    </row>
+    <row r="69" ht="20.0" customHeight="true">
+      <c r="A69" s="46"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M69" s="48"/>
+      <c r="N69" s="69"/>
+      <c r="AD69" s="78"/>
+    </row>
+    <row r="70" ht="20.0" customHeight="true">
+      <c r="A70" t="n" s="54">
+        <v>102.36</v>
+      </c>
+      <c r="B70" t="n" s="55">
+        <v>9.14</v>
+      </c>
+      <c r="C70" t="n" s="56">
+        <v>0.46</v>
+      </c>
+      <c r="D70" s="48"/>
+      <c r="E70" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H70" t="s" s="65">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s" s="65">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n" s="73">
+        <v>8.2</v>
+      </c>
+      <c r="K70" t="s" s="69">
+        <v>37</v>
+      </c>
+      <c r="L70" t="n" s="71">
+        <v>8.0</v>
+      </c>
+      <c r="M70" t="n" s="71">
+        <v>16.0</v>
+      </c>
+      <c r="N70" t="s" s="69">
+        <v>70</v>
+      </c>
+      <c r="AD70" s="78"/>
+    </row>
+    <row r="71" ht="20.0" customHeight="true">
+      <c r="A71" s="46"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" t="n" s="69">
+        <v>12.0</v>
+      </c>
+      <c r="M71" t="n" s="74">
+        <v>24.0</v>
+      </c>
+      <c r="N71" s="69"/>
+      <c r="AD71" s="78"/>
+    </row>
+    <row r="72" ht="20.0" customHeight="true">
+      <c r="A72" s="46"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" t="n" s="75">
+        <v>12.0</v>
+      </c>
+      <c r="M72" s="48"/>
+      <c r="N72" t="s" s="69">
+        <v>71</v>
+      </c>
+      <c r="AD72" s="78"/>
+    </row>
+    <row r="73" ht="20.0" customHeight="true">
+      <c r="A73" t="n" s="54">
+        <v>100.53</v>
+      </c>
+      <c r="B73" t="n" s="55">
+        <v>10.97</v>
+      </c>
+      <c r="C73" t="n" s="56">
+        <v>1.83</v>
+      </c>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" t="n" s="65">
+        <v>51.0</v>
+      </c>
+      <c r="I73" t="n" s="65">
+        <v>19.0</v>
+      </c>
+      <c r="J73" s="48"/>
+      <c r="K73" t="s" s="69">
+        <v>38</v>
+      </c>
+      <c r="L73" t="n" s="71">
+        <v>10.0</v>
+      </c>
+      <c r="M73" t="n" s="71">
+        <v>20.0</v>
+      </c>
+      <c r="N73" s="69"/>
+      <c r="AD73" s="78"/>
+    </row>
+    <row r="74" ht="20.0" customHeight="true">
+      <c r="A74" s="46"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" t="n" s="69">
+        <v>13.0</v>
+      </c>
+      <c r="M74" t="n" s="74">
+        <v>36.0</v>
+      </c>
+      <c r="N74" t="s" s="69">
+        <v>72</v>
+      </c>
+      <c r="AD74" s="78"/>
+    </row>
+    <row r="75" ht="20.0" customHeight="true">
+      <c r="A75" s="46"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" t="n" s="75">
+        <v>23.0</v>
+      </c>
+      <c r="M75" s="48"/>
+      <c r="N75" s="69"/>
+      <c r="AD75" s="78"/>
+    </row>
+    <row r="76" ht="20.0" customHeight="true">
+      <c r="A76" s="46"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" t="n" s="73">
+        <v>36.2</v>
+      </c>
+      <c r="K76" t="s" s="69">
         <v>39</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="L76" t="n" s="71">
+        <v>13.0</v>
+      </c>
+      <c r="M76" t="n" s="71">
+        <v>26.0</v>
+      </c>
+      <c r="N76" t="s" s="69">
+        <v>73</v>
+      </c>
+      <c r="AD76" s="78"/>
+    </row>
+    <row r="77" ht="20.0" customHeight="true">
+      <c r="A77" s="46"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" t="n" s="69">
+        <v>17.0</v>
+      </c>
+      <c r="M77" t="n" s="74">
+        <v>38.0</v>
+      </c>
+      <c r="N77" s="69"/>
+      <c r="AD77" s="78"/>
+    </row>
+    <row r="78" ht="20.0" customHeight="true">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" t="n" s="75">
+        <v>21.0</v>
+      </c>
+      <c r="M78" s="48"/>
+      <c r="N78" t="s" s="69">
+        <v>74</v>
+      </c>
+      <c r="AD78" s="78"/>
+    </row>
+    <row r="79" ht="20.0" customHeight="true">
+      <c r="A79" s="46"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" t="s" s="69">
         <v>40</v>
       </c>
-      <c r="H13" t="s" s="55">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s" s="55">
-        <v>9</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="76"/>
-    </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" t="s" s="61">
+      <c r="L79" t="n" s="71">
+        <v>27.0</v>
+      </c>
+      <c r="M79" t="n" s="71">
+        <v>54.0</v>
+      </c>
+      <c r="N79" s="69"/>
+      <c r="AD79" s="78"/>
+    </row>
+    <row r="80" ht="20.0" customHeight="true">
+      <c r="A80" s="46"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" t="n" s="69">
+        <v>26.0</v>
+      </c>
+      <c r="M80" t="n" s="74">
+        <v>60.0</v>
+      </c>
+      <c r="N80" t="s" s="69">
+        <v>75</v>
+      </c>
+      <c r="AD80" s="78"/>
+    </row>
+    <row r="81" ht="20.0" customHeight="true">
+      <c r="A81" s="46"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" t="n" s="75">
+        <v>34.0</v>
+      </c>
+      <c r="M81" s="48"/>
+      <c r="N81" s="69"/>
+      <c r="AD81" s="78"/>
+    </row>
+    <row r="82" ht="20.0" customHeight="true">
+      <c r="A82" s="46"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" t="n" s="73">
+        <v>36.9</v>
+      </c>
+      <c r="K82" t="s" s="69">
         <v>33</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="76"/>
-    </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="76"/>
-    </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" s="36"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" t="s" s="61">
+      <c r="L82" t="n" s="71">
+        <v>17.0</v>
+      </c>
+      <c r="M82" t="n" s="71">
+        <v>34.0</v>
+      </c>
+      <c r="N82" t="s" s="69">
+        <v>76</v>
+      </c>
+      <c r="AD82" s="78"/>
+    </row>
+    <row r="83" ht="20.0" customHeight="true">
+      <c r="A83" s="46"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" t="n" s="69">
+        <v>34.0</v>
+      </c>
+      <c r="M83" t="n" s="74">
+        <v>79.0</v>
+      </c>
+      <c r="N83" s="69"/>
+      <c r="AD83" s="78"/>
+    </row>
+    <row r="84" ht="20.0" customHeight="true">
+      <c r="A84" s="46"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" t="n" s="75">
+        <v>45.0</v>
+      </c>
+      <c r="M84" s="48"/>
+      <c r="N84" t="s" s="69">
+        <v>77</v>
+      </c>
+      <c r="AD84" s="78"/>
+    </row>
+    <row r="85" ht="20.0" customHeight="true">
+      <c r="A85" t="n" s="54">
+        <v>99.61</v>
+      </c>
+      <c r="B85" t="n" s="55">
+        <v>11.89</v>
+      </c>
+      <c r="C85" t="n" s="56">
+        <v>0.91</v>
+      </c>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" t="n" s="65">
+        <v>57.0</v>
+      </c>
+      <c r="I85" t="n" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="J85" s="48"/>
+      <c r="K85" t="s" s="69">
         <v>34</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="76"/>
-    </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="76"/>
-    </row>
-    <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" t="s" s="61">
-        <v>35</v>
-      </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="76"/>
-    </row>
-    <row r="19" ht="20.0" customHeight="true">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" t="n" s="63">
-        <v>26.4</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="76"/>
-    </row>
-    <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" t="s" s="61">
-        <v>36</v>
-      </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="76"/>
-    </row>
-    <row r="21" ht="20.0" customHeight="true">
-      <c r="A21" t="n" s="44">
-        <v>-1.6764000000000001</v>
-      </c>
-      <c r="B21" t="n" s="45">
-        <v>1.6764000000000001</v>
-      </c>
-      <c r="C21" t="n" s="46">
-        <v>0.45720000000000005</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="62" t="s">
+      <c r="L85" t="n" s="71">
+        <v>14.0</v>
+      </c>
+      <c r="M85" t="n" s="71">
+        <v>28.0</v>
+      </c>
+      <c r="N85" s="69"/>
+      <c r="AD85" s="78"/>
+    </row>
+    <row r="86" ht="20.0" customHeight="true">
+      <c r="A86" s="46"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" t="n" s="69">
+        <v>17.0</v>
+      </c>
+      <c r="M86" t="n" s="74">
+        <v>67.0</v>
+      </c>
+      <c r="N86" t="s" s="69">
+        <v>78</v>
+      </c>
+      <c r="AD86" s="78"/>
+    </row>
+    <row r="87" ht="20.0" customHeight="true">
+      <c r="A87" s="46"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" t="n" s="75">
+        <v>50.0</v>
+      </c>
+      <c r="M87" s="48"/>
+      <c r="N87" s="69"/>
+      <c r="AD87" s="78"/>
+    </row>
+    <row r="88" ht="20.0" customHeight="true">
+      <c r="A88" s="46"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" t="n" s="73">
+        <v>37.2</v>
+      </c>
+      <c r="K88" t="s" s="69">
         <v>41</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="n" s="55">
-        <v>41.0</v>
-      </c>
-      <c r="I21" t="n" s="55">
-        <v>11.0</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" t="s" s="61">
-        <v>30</v>
-      </c>
-      <c r="L21" t="n" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="M21" t="n" s="68">
-        <v>10.0</v>
-      </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="76"/>
-    </row>
-    <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" t="n" s="61">
-        <v>7.0</v>
-      </c>
-      <c r="M22" t="n" s="69">
-        <v>14.0</v>
-      </c>
-      <c r="N22" t="s" s="61">
-        <v>37</v>
-      </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="76"/>
-    </row>
-    <row r="23" ht="20.0" customHeight="true">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" t="n" s="70">
-        <v>7.0</v>
-      </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="76"/>
-    </row>
-    <row r="24" ht="20.0" customHeight="true">
-      <c r="A24" t="n" s="44">
-        <v>-2.5908</v>
-      </c>
-      <c r="B24" t="n" s="45">
-        <v>2.5908</v>
-      </c>
-      <c r="C24" t="n" s="46">
-        <v>0.9144000000000001</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="n" s="55">
-        <v>75.0</v>
-      </c>
-      <c r="I24" t="n" s="55">
-        <v>47.0</v>
-      </c>
-      <c r="J24" s="38"/>
-      <c r="K24" t="s" s="61">
-        <v>31</v>
-      </c>
-      <c r="L24" t="n" s="68">
-        <v>9.0</v>
-      </c>
-      <c r="M24" t="n" s="68">
-        <v>18.0</v>
-      </c>
-      <c r="N24" t="s" s="61">
-        <v>38</v>
-      </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="76"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" t="n" s="61">
-        <v>6.0</v>
-      </c>
-      <c r="M25" t="n" s="69">
-        <v>11.0</v>
-      </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="76"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" t="n" s="70">
-        <v>5.0</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="76"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" t="s" s="61">
-        <v>32</v>
-      </c>
-      <c r="L27" t="n" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="M27" t="n" s="68">
-        <v>8.0</v>
-      </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="76"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" t="n" s="61">
-        <v>4.0</v>
-      </c>
-      <c r="M28" t="n" s="69">
-        <v>7.0</v>
-      </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="76"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="65"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" t="n" s="75">
-        <v>3.0</v>
-      </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="77"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="78">
-        <v>46</v>
+      <c r="L88" t="n" s="71">
+        <v>40.0</v>
+      </c>
+      <c r="M88" t="n" s="71">
+        <v>80.0</v>
+      </c>
+      <c r="N88" t="s" s="69">
+        <v>79</v>
+      </c>
+      <c r="AD88" s="78"/>
+    </row>
+    <row r="89" ht="20.0" customHeight="true">
+      <c r="A89" s="46"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" t="n" s="69">
+        <v>45.0</v>
+      </c>
+      <c r="M89" t="n" s="74">
+        <v>95.0</v>
+      </c>
+      <c r="N89" s="69"/>
+      <c r="AD89" s="78"/>
+    </row>
+    <row r="90" ht="20.0" customHeight="true">
+      <c r="A90" s="46"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" t="n" s="75">
+        <v>50.0</v>
+      </c>
+      <c r="M90" s="48"/>
+      <c r="N90" t="s" s="69">
+        <v>80</v>
+      </c>
+      <c r="AD90" s="78"/>
+    </row>
+    <row r="91" ht="20.0" customHeight="true">
+      <c r="A91" t="n" s="54">
+        <v>99.16</v>
+      </c>
+      <c r="B91" t="n" s="55">
+        <v>12.34</v>
+      </c>
+      <c r="C91" t="n" s="56">
+        <v>0.46</v>
+      </c>
+      <c r="D91" s="48"/>
+      <c r="E91" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J91" s="48"/>
+      <c r="K91" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L91" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M91" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N91" s="69"/>
+      <c r="Q91" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD91" s="78"/>
+    </row>
+    <row r="92" ht="20.0" customHeight="true">
+      <c r="A92" s="46"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N92" t="s" s="69">
+        <v>81</v>
+      </c>
+      <c r="Q92" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD92" s="78"/>
+    </row>
+    <row r="93" ht="20.0" customHeight="true">
+      <c r="A93" s="46"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M93" s="48"/>
+      <c r="N93" s="69"/>
+      <c r="AD93" s="78"/>
+    </row>
+    <row r="94" ht="20.0" customHeight="true">
+      <c r="A94" t="n" s="54">
+        <v>97.78</v>
+      </c>
+      <c r="B94" t="n" s="55">
+        <v>13.72</v>
+      </c>
+      <c r="C94" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H94" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I94" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J94" s="48"/>
+      <c r="K94" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L94" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M94" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N94" t="s" s="69">
+        <v>82</v>
+      </c>
+      <c r="Q94" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD94" s="78"/>
+    </row>
+    <row r="95" ht="20.0" customHeight="true">
+      <c r="A95" s="46"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N95" s="69"/>
+      <c r="Q95" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD95" s="78"/>
+    </row>
+    <row r="96" ht="20.0" customHeight="true">
+      <c r="A96" s="46"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M96" s="48"/>
+      <c r="N96" t="s" s="69">
+        <v>83</v>
+      </c>
+      <c r="AD96" s="78"/>
+    </row>
+    <row r="97" ht="20.0" customHeight="true">
+      <c r="A97" s="46"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L97" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M97" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N97" s="69"/>
+      <c r="AD97" s="78"/>
+    </row>
+    <row r="98" ht="20.0" customHeight="true">
+      <c r="A98" s="46"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N98" t="s" s="69">
+        <v>84</v>
+      </c>
+      <c r="Q98" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD98" s="78"/>
+    </row>
+    <row r="99" ht="20.0" customHeight="true">
+      <c r="A99" s="46"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M99" s="48"/>
+      <c r="N99" s="69"/>
+      <c r="AD99" s="78"/>
+    </row>
+    <row r="100" ht="20.0" customHeight="true">
+      <c r="A100" s="46"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L100" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M100" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N100" t="s" s="69">
+        <v>85</v>
+      </c>
+      <c r="AD100" s="78"/>
+    </row>
+    <row r="101" ht="20.0" customHeight="true">
+      <c r="A101" s="46"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N101" s="69"/>
+      <c r="Q101" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD101" s="78"/>
+    </row>
+    <row r="102" ht="20.0" customHeight="true">
+      <c r="A102" s="46"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M102" s="48"/>
+      <c r="N102" t="s" s="69">
+        <v>86</v>
+      </c>
+      <c r="AD102" s="78"/>
+    </row>
+    <row r="103" ht="20.0" customHeight="true">
+      <c r="A103" t="n" s="54">
+        <v>96.41</v>
+      </c>
+      <c r="B103" t="n" s="55">
+        <v>15.09</v>
+      </c>
+      <c r="C103" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G103" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I103" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J103" s="48"/>
+      <c r="K103" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L103" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M103" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N103" s="69"/>
+      <c r="Q103" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD103" s="78"/>
+    </row>
+    <row r="104" ht="20.0" customHeight="true">
+      <c r="A104" s="46"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N104" t="s" s="69">
+        <v>87</v>
+      </c>
+      <c r="Q104" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD104" s="78"/>
+    </row>
+    <row r="105" ht="20.0" customHeight="true">
+      <c r="A105" s="46"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+      <c r="L105" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M105" s="48"/>
+      <c r="N105" s="69"/>
+      <c r="AD105" s="78"/>
+    </row>
+    <row r="106" ht="20.0" customHeight="true">
+      <c r="A106" s="46"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L106" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M106" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N106" t="s" s="69">
+        <v>88</v>
+      </c>
+      <c r="AD106" s="78"/>
+    </row>
+    <row r="107" ht="20.0" customHeight="true">
+      <c r="A107" s="46"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N107" s="69"/>
+      <c r="Q107" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD107" s="78"/>
+    </row>
+    <row r="108" ht="20.0" customHeight="true">
+      <c r="A108" s="46"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+      <c r="L108" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M108" s="48"/>
+      <c r="N108" t="s" s="69">
+        <v>89</v>
+      </c>
+      <c r="AD108" s="78"/>
+    </row>
+    <row r="109" ht="20.0" customHeight="true">
+      <c r="A109" s="46"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L109" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M109" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N109" s="69"/>
+      <c r="AD109" s="78"/>
+    </row>
+    <row r="110" ht="20.0" customHeight="true">
+      <c r="A110" s="46"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N110" t="s" s="69">
+        <v>90</v>
+      </c>
+      <c r="Q110" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD110" s="78"/>
+    </row>
+    <row r="111" ht="20.0" customHeight="true">
+      <c r="A111" s="46"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+      <c r="L111" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M111" s="48"/>
+      <c r="N111" s="69"/>
+      <c r="AD111" s="78"/>
+    </row>
+    <row r="112" ht="20.0" customHeight="true">
+      <c r="A112" t="n" s="54">
+        <v>95.04</v>
+      </c>
+      <c r="B112" t="n" s="55">
+        <v>16.46</v>
+      </c>
+      <c r="C112" t="n" s="56">
+        <v>1.37</v>
+      </c>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I112" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J112" s="48"/>
+      <c r="K112" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L112" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M112" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N112" t="s" s="69">
+        <v>91</v>
+      </c>
+      <c r="Q112" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD112" s="78"/>
+    </row>
+    <row r="113" ht="20.0" customHeight="true">
+      <c r="A113" s="46"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N113" s="69"/>
+      <c r="Q113" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD113" s="78"/>
+    </row>
+    <row r="114" ht="20.0" customHeight="true">
+      <c r="A114" s="46"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="48"/>
+      <c r="L114" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M114" s="48"/>
+      <c r="N114" t="s" s="69">
+        <v>92</v>
+      </c>
+      <c r="AD114" s="78"/>
+    </row>
+    <row r="115" ht="20.0" customHeight="true">
+      <c r="A115" s="46"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="48"/>
+      <c r="K115" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L115" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M115" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N115" s="69"/>
+      <c r="AD115" s="78"/>
+    </row>
+    <row r="116" ht="20.0" customHeight="true">
+      <c r="A116" s="46"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="K116" s="48"/>
+      <c r="L116" s="48"/>
+      <c r="M116" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N116" t="s" s="69">
+        <v>93</v>
+      </c>
+      <c r="Q116" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD116" s="78"/>
+    </row>
+    <row r="117" ht="20.0" customHeight="true">
+      <c r="A117" s="46"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="48"/>
+      <c r="L117" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M117" s="48"/>
+      <c r="N117" s="69"/>
+      <c r="AD117" s="78"/>
+    </row>
+    <row r="118" ht="20.0" customHeight="true">
+      <c r="A118" s="46"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L118" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M118" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N118" t="s" s="69">
+        <v>94</v>
+      </c>
+      <c r="AD118" s="78"/>
+    </row>
+    <row r="119" ht="20.0" customHeight="true">
+      <c r="A119" s="46"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N119" s="69"/>
+      <c r="Q119" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD119" s="78"/>
+    </row>
+    <row r="120" ht="20.0" customHeight="true">
+      <c r="A120" s="46"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
+      <c r="L120" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M120" s="48"/>
+      <c r="N120" t="s" s="69">
+        <v>95</v>
+      </c>
+      <c r="AD120" s="78"/>
+    </row>
+    <row r="121" ht="20.0" customHeight="true">
+      <c r="A121" t="n" s="54">
+        <v>94.13</v>
+      </c>
+      <c r="B121" t="n" s="55">
+        <v>17.37</v>
+      </c>
+      <c r="C121" t="n" s="56">
+        <v>0.91</v>
+      </c>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="G121" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H121" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="I121" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="J121" s="48"/>
+      <c r="K121" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L121" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M121" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N121" s="69"/>
+      <c r="Q121" t="s" s="27">
+        <v>102</v>
+      </c>
+      <c r="AD121" s="78"/>
+    </row>
+    <row r="122" ht="20.0" customHeight="true">
+      <c r="A122" s="46"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N122" t="s" s="69">
+        <v>96</v>
+      </c>
+      <c r="Q122" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD122" s="78"/>
+    </row>
+    <row r="123" ht="20.0" customHeight="true">
+      <c r="A123" s="46"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+      <c r="L123" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="M123" s="48"/>
+      <c r="N123" s="69"/>
+      <c r="AD123" s="78"/>
+    </row>
+    <row r="124" ht="20.0" customHeight="true">
+      <c r="A124" s="46"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="L124" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="M124" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="N124" t="s" s="69">
+        <v>97</v>
+      </c>
+      <c r="AD124" s="78"/>
+    </row>
+    <row r="125" ht="20.0" customHeight="true">
+      <c r="A125" s="46"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
+      <c r="L125" s="48"/>
+      <c r="M125" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="N125" s="69"/>
+      <c r="Q125" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD125" s="78"/>
+    </row>
+    <row r="126" ht="20.0" customHeight="true">
+      <c r="A126" s="93"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="94"/>
+      <c r="H126" s="94"/>
+      <c r="I126" s="94"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="94"/>
+      <c r="L126" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="M126" s="94"/>
+      <c r="N126" t="s" s="96">
+        <v>98</v>
+      </c>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="20"/>
+      <c r="AC126" s="20"/>
+      <c r="AD126" s="97"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="98">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3413,42 +6360,206 @@
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:AD12"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="F13:F20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="I13:I20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="K115:K117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="K121:K123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="A13:A33"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="C13:C33"/>
+    <mergeCell ref="F13:F33"/>
+    <mergeCell ref="G13:G33"/>
+    <mergeCell ref="H13:H33"/>
+    <mergeCell ref="I13:I33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="F34:F42"/>
+    <mergeCell ref="G34:G42"/>
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="I34:I42"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="F43:F51"/>
+    <mergeCell ref="G43:G51"/>
+    <mergeCell ref="H43:H51"/>
+    <mergeCell ref="I43:I51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="F52:F60"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="H52:H60"/>
+    <mergeCell ref="I52:I60"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="F61:F69"/>
+    <mergeCell ref="G61:G69"/>
+    <mergeCell ref="H61:H69"/>
+    <mergeCell ref="I61:I69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="A73:A84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="G73:G84"/>
+    <mergeCell ref="H73:H84"/>
+    <mergeCell ref="I73:I84"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="F85:F90"/>
+    <mergeCell ref="G85:G90"/>
+    <mergeCell ref="H85:H90"/>
+    <mergeCell ref="I85:I90"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="F94:F102"/>
+    <mergeCell ref="G94:G102"/>
+    <mergeCell ref="H94:H102"/>
+    <mergeCell ref="I94:I102"/>
+    <mergeCell ref="Q103:T103"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="F103:F111"/>
+    <mergeCell ref="G103:G111"/>
+    <mergeCell ref="H103:H111"/>
+    <mergeCell ref="I103:I111"/>
+    <mergeCell ref="Q112:T112"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="G112:G120"/>
+    <mergeCell ref="H112:H120"/>
+    <mergeCell ref="I112:I120"/>
+    <mergeCell ref="Q121:T121"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="F121:F126"/>
+    <mergeCell ref="G121:G126"/>
+    <mergeCell ref="H121:H126"/>
+    <mergeCell ref="I121:I126"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J22:J24"/>
-    <mergeCell ref="E13:E24"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J69"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="J91:J126"/>
+    <mergeCell ref="E13:E39"/>
+    <mergeCell ref="E40:E69"/>
+    <mergeCell ref="E70:E90"/>
+    <mergeCell ref="E91:E126"/>
+    <mergeCell ref="D13:D126"/>
+    <mergeCell ref="A128:AD128"/>
   </mergeCells>
   <printOptions horizontalCentered="true"/>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.25"/>
@@ -3462,7 +6573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3473,143 +6584,611 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="B8" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="B11" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="B12" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="B13" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="B14" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="B15" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="B16" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="B17" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.0</v>
       </c>
-      <c r="B18" t="n">
-        <v>4.0</v>
+      <c r="D37" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
